--- a/biology/Botanique/Orobanche_mutelii/Orobanche_mutelii.xlsx
+++ b/biology/Botanique/Orobanche_mutelii/Orobanche_mutelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche mutelii, Phelipanche mutelii
 L'Orobanche de Mutel (Orobanche mutelii ou Phelipanche mutelii) est une espèce de plantes à fleurs de la famille des Orobanchaceae. C'est une plante parasite des légumineuses, composées et labiées principalement.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante est haute de 5 à 25 cm, pubescente-glanduleuse, à tige en massue à la base, grêle, simple ou rameuse, à écailles peu nombreuses et petites, mesurant 6 à 12 mm de long[2]. 
-Appareil reproducteur
-Les fleurs sont longues de 15 à 22 mm, fortement penchées-courbées, sessiles, rapprochées en épis multiflores denses et courts, arrondis ou acuminés. Le calice est à lobes courts, lancéolés en alêne, aussi longs que son tube. La corolle est d'un bleu violet pâle, à lobes arrondis, densément pubescents. Les anthères sont glabres ou velues à la base. Le stigmate est blanchâtre ou jaunâtre[2]. 
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est haute de 5 à 25 cm, pubescente-glanduleuse, à tige en massue à la base, grêle, simple ou rameuse, à écailles peu nombreuses et petites, mesurant 6 à 12 mm de long. 
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison a lieu d'avril à juin. Cette orobanche parasite les légumineuses, les composées et les labiées principalement[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont longues de 15 à 22 mm, fortement penchées-courbées, sessiles, rapprochées en épis multiflores denses et courts, arrondis ou acuminés. Le calice est à lobes courts, lancéolés en alêne, aussi longs que son tube. La corolle est d'un bleu violet pâle, à lobes arrondis, densément pubescents. Les anthères sont glabres ou velues à la base. Le stigmate est blanchâtre ou jaunâtre. 
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en région méditerranéenne, au Moyen-Orient, au Maghreb et en Afrique de l'est[3].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à juin. Cette orobanche parasite les légumineuses, les composées et les labiées principalement.
 </t>
         </is>
       </c>
@@ -605,12 +628,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en région méditerranéenne, au Moyen-Orient, au Maghreb et en Afrique de l'est.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orobanche_mutelii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orobanche_mutelii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'INPN      (14 mars 2021)[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'INPN      (14 mars 2021)
 Nom correct : Phelipanche mutelii (Reut.) Pomel, 1874
 Synonymes :
 Kopsia mutelii (F.W.Schultz) Bég., 1902
@@ -630,7 +688,7 @@
 Phelypaea mutelii (F.W.Schultz) Reut., 1847
 Phelypaea ramosa subsp. mutelii (F.W.Schultz) Rouy, 1909
 Phelypaea rufescens Griseb., 1844
-Selon Plants of the World online (POWO)                (14 mars 2021)[3]
+Selon Plants of the World online (POWO)                (14 mars 2021)
 Nom correct : Orobanche mutelii F.W.Schultz, 1835
 Synonymes :
 Kopsia interrupta Dumort.
@@ -655,7 +713,7 @@
 Phelypaea panormitana Lojac.
 Phelypaea rufescens Griseb.
 Phelypaea tenuiflora Pomel
-Selon GBIF       (14 mars 2021)[4]
+Selon GBIF       (14 mars 2021)
 Nom correct : Phelipanche mutelii (F.W.Schultz) Pomel,  1874
 Synonymes :
 Phelypaea caesia Griseb., 1844
